--- a/sofaplayer/Serie_A/Inter_stats.xlsx
+++ b/sofaplayer/Serie_A/Inter_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>823984</v>
       </c>
       <c r="E2" t="n">
-        <v>7.0583333333333</v>
+        <v>7.036</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>1815</v>
+        <v>1905</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -1053,13 +1053,13 @@
         <v>14</v>
       </c>
       <c r="K2" t="n">
-        <v>11.2843</v>
+        <v>11.3614</v>
       </c>
       <c r="L2" t="n">
-        <v>129.64285714286</v>
+        <v>136.07142857143</v>
       </c>
       <c r="M2" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" t="n">
         <v>32</v>
@@ -1068,7 +1068,7 @@
         <v>15</v>
       </c>
       <c r="P2" t="n">
-        <v>17.073170731707</v>
+        <v>16.867469879518</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1101,34 +1101,34 @@
         <v>4</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.90986366</v>
+        <v>1.96154296</v>
       </c>
       <c r="AB2" t="n">
-        <v>864</v>
+        <v>895</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="n">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="AF2" t="n">
-        <v>77.9324055666</v>
+        <v>78.20267686424501</v>
       </c>
       <c r="AG2" t="n">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="AH2" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AI2" t="n">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AJ2" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
@@ -1146,19 +1146,19 @@
         <v>5</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AS2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU2" t="n">
         <v>22</v>
@@ -1179,16 +1179,16 @@
         <v>46.153846153846</v>
       </c>
       <c r="BA2" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="BB2" t="n">
-        <v>45.893719806763</v>
+        <v>45.622119815668</v>
       </c>
       <c r="BC2" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BD2" t="n">
-        <v>45.283018867925</v>
+        <v>44.970414201183</v>
       </c>
       <c r="BE2" t="n">
         <v>23</v>
@@ -1197,13 +1197,13 @@
         <v>47.916666666667</v>
       </c>
       <c r="BG2" t="n">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="BH2" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BI2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BJ2" t="n">
         <v>7</v>
@@ -1221,28 +1221,28 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>169.4</v>
+        <v>175.9</v>
       </c>
       <c r="BR2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS2" t="n">
         <v>18</v>
       </c>
       <c r="BT2" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1254,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="CA2" t="n">
         <v>10</v>
       </c>
       <c r="CB2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CC2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CD2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CK2" t="n">
         <v>3</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CS2" t="n">
         <v>39</v>
@@ -1317,7 +1317,7 @@
         <v>16</v>
       </c>
       <c r="CU2" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="CV2" t="n">
         <v>25</v>
@@ -1335,10 +1335,10 @@
         <v>26</v>
       </c>
       <c r="DA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DB2" t="n">
-        <v>58.823529411765</v>
+        <v>55</v>
       </c>
       <c r="DC2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="DG2" t="n">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>791702</v>
       </c>
       <c r="E3" t="n">
-        <v>6.9944444444444</v>
+        <v>6.9631578947368</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>1107</v>
+        <v>1193</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -1409,22 +1409,22 @@
         <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>5.6347</v>
+        <v>5.7657</v>
       </c>
       <c r="L3" t="n">
-        <v>158.14285714286</v>
+        <v>170.42857142857</v>
       </c>
       <c r="M3" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" t="n">
         <v>12</v>
       </c>
       <c r="P3" t="n">
-        <v>15.909090909091</v>
+        <v>14.893617021277</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1457,34 +1457,34 @@
         <v>3</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.24248765</v>
+        <v>1.57417765</v>
       </c>
       <c r="AB3" t="n">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="AC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="AF3" t="n">
-        <v>74.03508771929801</v>
+        <v>74.675324675325</v>
       </c>
       <c r="AG3" t="n">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="AH3" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="AJ3" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AK3" t="n">
         <v>4</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
         <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
         <v>2</v>
@@ -1529,40 +1529,40 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
-        <v>68.421052631579</v>
+        <v>70</v>
       </c>
       <c r="BA3" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="BB3" t="n">
-        <v>51.190476190476</v>
+        <v>50</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BD3" t="n">
-        <v>50</v>
+        <v>49.090909090909</v>
       </c>
       <c r="BE3" t="n">
         <v>35</v>
       </c>
       <c r="BF3" t="n">
-        <v>53.030303030303</v>
+        <v>51.470588235294</v>
       </c>
       <c r="BG3" t="n">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="BH3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BI3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BJ3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK3" t="n">
         <v>2</v>
@@ -1577,28 +1577,28 @@
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>125.9</v>
+        <v>132.3</v>
       </c>
       <c r="BR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS3" t="n">
         <v>10</v>
       </c>
       <c r="BT3" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CA3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CC3" t="n">
         <v>4</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK3" t="n">
         <v>3</v>
@@ -1664,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
+        <v>21</v>
+      </c>
+      <c r="CS3" t="n">
         <v>20</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>19</v>
       </c>
       <c r="CT3" t="n">
         <v>11</v>
       </c>
       <c r="CU3" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="CV3" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>7</v>
       </c>
       <c r="DB3" t="n">
-        <v>50</v>
+        <v>46.666666666667</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="DG3" t="n">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>1086223</v>
       </c>
       <c r="E4" t="n">
-        <v>6.9277777777778</v>
+        <v>6.9157894736842</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -1765,13 +1765,13 @@
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.473</v>
+        <v>3.0198</v>
       </c>
       <c r="L4" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
@@ -1780,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>38.461538461538</v>
+        <v>35.714285714286</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.09803072</v>
+        <v>1.10292969</v>
       </c>
       <c r="AB4" t="n">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AC4" t="n">
         <v>4</v>
@@ -1825,22 +1825,22 @@
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF4" t="n">
-        <v>81.15942028985501</v>
+        <v>79.72027972028</v>
       </c>
       <c r="AG4" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AH4" t="n">
         <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AJ4" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="n">
         <v>4</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="AP4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ4" t="n">
         <v>5</v>
@@ -1873,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -1885,31 +1885,31 @@
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ4" t="n">
+        <v>46.666666666667</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>43.956043956044</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD4" t="n">
         <v>42.857142857143</v>
       </c>
-      <c r="BA4" t="n">
-        <v>36</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>28</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>43.076923076923</v>
-      </c>
       <c r="BE4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BF4" t="n">
-        <v>42.105263157895</v>
+        <v>47.619047619048</v>
       </c>
       <c r="BG4" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BH4" t="n">
         <v>9</v>
@@ -1939,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>124.7</v>
+        <v>131.4</v>
       </c>
       <c r="BR4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS4" t="n">
         <v>8</v>
       </c>
       <c r="BT4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1966,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CA4" t="n">
         <v>2</v>
       </c>
       <c r="CB4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CC4" t="n">
         <v>3</v>
@@ -2023,13 +2023,13 @@
         <v>12</v>
       </c>
       <c r="CS4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CT4" t="n">
         <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="CV4" t="n">
         <v>11</v>
@@ -2047,10 +2047,10 @@
         <v>4</v>
       </c>
       <c r="DA4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB4" t="n">
-        <v>66.666666666667</v>
+        <v>71.428571428571</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>33</v>
       </c>
       <c r="DG4" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,40 +2103,40 @@
         <v>1156616</v>
       </c>
       <c r="E5" t="n">
-        <v>6.5772727272727</v>
+        <v>6.6086956521739</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
         <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>822</v>
+        <v>846</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9322</v>
+        <v>4.3056</v>
       </c>
       <c r="L5" t="n">
-        <v>274</v>
+        <v>211.5</v>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P5" t="n">
-        <v>8.5714285714286</v>
+        <v>10.526315789474</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2148,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
@@ -2169,10 +2169,10 @@
         <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.97694939</v>
+        <v>0.97701476</v>
       </c>
       <c r="AB5" t="n">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
@@ -2181,16 +2181,16 @@
         <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>74.129353233831</v>
+        <v>73.891625615764</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AH5" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI5" t="n">
         <v>111</v>
@@ -2220,16 +2220,16 @@
         <v>5</v>
       </c>
       <c r="AR5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS5" t="n">
         <v>3</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>27.272727272727</v>
       </c>
       <c r="BA5" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BB5" t="n">
-        <v>48.461538461538</v>
+        <v>48.484848484848</v>
       </c>
       <c r="BC5" t="n">
         <v>36</v>
@@ -2259,13 +2259,13 @@
         <v>47.368421052632</v>
       </c>
       <c r="BE5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BF5" t="n">
         <v>50</v>
       </c>
       <c r="BG5" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BH5" t="n">
         <v>20</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>144.7</v>
+        <v>152</v>
       </c>
       <c r="BR5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BT5" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2322,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CA5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB5" t="n">
         <v>14</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK5" t="n">
         <v>1</v>
@@ -2385,10 +2385,10 @@
         <v>2</v>
       </c>
       <c r="CU5" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CV5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="DG5" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>135700</v>
       </c>
       <c r="E6" t="n">
-        <v>7.53125</v>
+        <v>7.5</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
         <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>1271</v>
+        <v>1307</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
@@ -2477,22 +2477,22 @@
         <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>4.589</v>
+        <v>4.745</v>
       </c>
       <c r="L6" t="n">
-        <v>181.57142857143</v>
+        <v>186.71428571429</v>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>17.5</v>
+        <v>15.909090909091</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
@@ -2525,67 +2525,67 @@
         <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.8568531</v>
+        <v>2.9788251</v>
       </c>
       <c r="AB6" t="n">
-        <v>1315</v>
+        <v>1371</v>
       </c>
       <c r="AC6" t="n">
         <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE6" t="n">
-        <v>979</v>
+        <v>1016</v>
       </c>
       <c r="AF6" t="n">
-        <v>90.480591497227</v>
+        <v>90.55258467023199</v>
       </c>
       <c r="AG6" t="n">
-        <v>1082</v>
+        <v>1122</v>
       </c>
       <c r="AH6" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AI6" t="n">
-        <v>558</v>
+        <v>593</v>
       </c>
       <c r="AJ6" t="n">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AL6" t="n">
-        <v>57.894736842105</v>
+        <v>58.762886597938</v>
       </c>
       <c r="AM6" t="n">
         <v>27</v>
       </c>
       <c r="AN6" t="n">
-        <v>39.130434782609</v>
+        <v>38.028169014085</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AS6" t="n">
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -2600,40 +2600,40 @@
         <v>3</v>
       </c>
       <c r="AZ6" t="n">
-        <v>30</v>
+        <v>27.272727272727</v>
       </c>
       <c r="BA6" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="BB6" t="n">
-        <v>49.411764705882</v>
+        <v>49.462365591398</v>
       </c>
       <c r="BC6" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BD6" t="n">
-        <v>48.571428571429</v>
+        <v>48.051948051948</v>
       </c>
       <c r="BE6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF6" t="n">
-        <v>53.333333333333</v>
+        <v>56.25</v>
       </c>
       <c r="BG6" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="BH6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BI6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
@@ -2645,28 +2645,28 @@
         <v>5</v>
       </c>
       <c r="BO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>120.5</v>
+        <v>127.5</v>
       </c>
       <c r="BR6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS6" t="n">
         <v>9</v>
       </c>
       <c r="BT6" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BW6" t="n">
         <v>4</v>
@@ -2681,13 +2681,13 @@
         <v>6</v>
       </c>
       <c r="CA6" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="CB6" t="n">
         <v>4</v>
       </c>
       <c r="CC6" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="CD6" t="n">
         <v>41</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CK6" t="n">
         <v>2</v>
@@ -2732,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CS6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CT6" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="CU6" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="CV6" t="n">
         <v>7</v>
@@ -2756,13 +2756,13 @@
         <v>1</v>
       </c>
       <c r="CZ6" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="DA6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DB6" t="n">
-        <v>59.090909090909</v>
+        <v>58.333333333333</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="DG6" t="n">
-        <v>641</v>
+        <v>678</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>363856</v>
       </c>
       <c r="E7" t="n">
-        <v>7.1818181818182</v>
+        <v>7.1391304347826</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>1627</v>
+        <v>1681</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -2833,13 +2833,13 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2465</v>
+        <v>2.2653</v>
       </c>
       <c r="L7" t="n">
-        <v>1627</v>
+        <v>1681</v>
       </c>
       <c r="M7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" t="n">
         <v>3</v>
@@ -2848,7 +2848,7 @@
         <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5454545454545</v>
+        <v>4.3478260869565</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2881,10 +2881,10 @@
         <v>5</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.60716</v>
+        <v>4.6814704</v>
       </c>
       <c r="AB7" t="n">
-        <v>1377</v>
+        <v>1414</v>
       </c>
       <c r="AC7" t="n">
         <v>12</v>
@@ -2893,28 +2893,28 @@
         <v>51</v>
       </c>
       <c r="AE7" t="n">
-        <v>924</v>
+        <v>954</v>
       </c>
       <c r="AF7" t="n">
         <v>85.71428571428601</v>
       </c>
       <c r="AG7" t="n">
-        <v>1078</v>
+        <v>1113</v>
       </c>
       <c r="AH7" t="n">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="AI7" t="n">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="AJ7" t="n">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="AK7" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL7" t="n">
-        <v>63.095238095238</v>
+        <v>62.790697674419</v>
       </c>
       <c r="AM7" t="n">
         <v>26</v>
@@ -2929,19 +2929,19 @@
         <v>35</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AS7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT7" t="n">
         <v>7</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -2959,37 +2959,37 @@
         <v>44.827586206897</v>
       </c>
       <c r="BA7" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BB7" t="n">
-        <v>47.945205479452</v>
+        <v>47.682119205298</v>
       </c>
       <c r="BC7" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BD7" t="n">
-        <v>50.793650793651</v>
+        <v>50</v>
       </c>
       <c r="BE7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF7" t="n">
-        <v>30</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG7" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="BH7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BI7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BJ7" t="n">
         <v>3</v>
       </c>
       <c r="BK7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL7" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>4</v>
       </c>
       <c r="BO7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>158</v>
+        <v>164.2</v>
       </c>
       <c r="BR7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS7" t="n">
         <v>6</v>
       </c>
       <c r="BT7" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>14</v>
       </c>
       <c r="CA7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CB7" t="n">
         <v>12</v>
       </c>
       <c r="CC7" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="CD7" t="n">
         <v>65</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CK7" t="n">
         <v>2</v>
@@ -3097,7 +3097,7 @@
         <v>73</v>
       </c>
       <c r="CU7" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="CV7" t="n">
         <v>14</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="DA7" t="n">
         <v>18</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="DG7" t="n">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,40 +3171,40 @@
         <v>138605</v>
       </c>
       <c r="E8" t="n">
-        <v>7.1285714285714</v>
+        <v>7.1818181818182</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>1109</v>
+        <v>1199</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>1.5123</v>
+        <v>1.9742</v>
       </c>
       <c r="L8" t="n">
-        <v>277.25</v>
+        <v>239.8</v>
       </c>
       <c r="M8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>25</v>
+        <v>26.315789473684</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -3219,13 +3219,13 @@
         <v>1</v>
       </c>
       <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>3</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2</v>
       </c>
       <c r="X8" t="n">
         <v>2</v>
@@ -3237,46 +3237,46 @@
         <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.5858798</v>
+        <v>1.8543538</v>
       </c>
       <c r="AB8" t="n">
-        <v>916</v>
+        <v>1006</v>
       </c>
       <c r="AC8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
-        <v>723</v>
+        <v>798</v>
       </c>
       <c r="AF8" t="n">
-        <v>91.40328697850801</v>
+        <v>91.935483870968</v>
       </c>
       <c r="AG8" t="n">
-        <v>791</v>
+        <v>868</v>
       </c>
       <c r="AH8" t="n">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="AI8" t="n">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="AJ8" t="n">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>66.666666666667</v>
+        <v>68.08510638297901</v>
       </c>
       <c r="AM8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN8" t="n">
-        <v>42.857142857143</v>
+        <v>43.75</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -3288,13 +3288,13 @@
         <v>7</v>
       </c>
       <c r="AR8" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AS8" t="n">
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -3309,43 +3309,43 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ8" t="n">
-        <v>85.71428571428601</v>
+        <v>81.25</v>
       </c>
       <c r="BA8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BB8" t="n">
-        <v>59.459459459459</v>
+        <v>58.227848101266</v>
       </c>
       <c r="BC8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BD8" t="n">
-        <v>61.016949152542</v>
+        <v>60.31746031746</v>
       </c>
       <c r="BE8" t="n">
         <v>8</v>
       </c>
       <c r="BF8" t="n">
-        <v>53.333333333333</v>
+        <v>50</v>
       </c>
       <c r="BG8" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="BH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
@@ -3357,70 +3357,70 @@
         <v>2</v>
       </c>
       <c r="BO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>158</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>70</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>14</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>34</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>23</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
         <v>11</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>21</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>5</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>68</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>12</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>32</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>21</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>9</v>
       </c>
       <c r="CK8" t="n">
         <v>2</v>
@@ -3444,19 +3444,19 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CS8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CT8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CU8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="CV8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="DA8" t="n">
         <v>10</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="DG8" t="n">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>284361</v>
       </c>
       <c r="E9" t="n">
-        <v>7.5818181818182</v>
+        <v>7.5608695652174</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" t="n">
-        <v>1717</v>
+        <v>1807</v>
       </c>
       <c r="I9" t="n">
         <v>7</v>
@@ -3545,13 +3545,13 @@
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.7757</v>
+        <v>2.9554</v>
       </c>
       <c r="L9" t="n">
-        <v>343.4</v>
+        <v>361.4</v>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N9" t="n">
         <v>15</v>
@@ -3560,7 +3560,7 @@
         <v>6</v>
       </c>
       <c r="P9" t="n">
-        <v>12.5</v>
+        <v>11.627906976744</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -3590,61 +3590,61 @@
         <v>2</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.8405096</v>
+        <v>7.2828956</v>
       </c>
       <c r="AB9" t="n">
-        <v>1339</v>
+        <v>1433</v>
       </c>
       <c r="AC9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD9" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AE9" t="n">
-        <v>719</v>
+        <v>776</v>
       </c>
       <c r="AF9" t="n">
-        <v>82.171428571429</v>
+        <v>82.29056203605499</v>
       </c>
       <c r="AG9" t="n">
-        <v>875</v>
+        <v>943</v>
       </c>
       <c r="AH9" t="n">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="AI9" t="n">
-        <v>478</v>
+        <v>525</v>
       </c>
       <c r="AJ9" t="n">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>38.461538461538</v>
+        <v>39.43661971831</v>
       </c>
       <c r="AM9" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AN9" t="n">
-        <v>33.516483516484</v>
+        <v>33.673469387755</v>
       </c>
       <c r="AO9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR9" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AS9" t="n">
         <v>9</v>
@@ -3653,7 +3653,7 @@
         <v>19</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -3671,16 +3671,16 @@
         <v>42.857142857143</v>
       </c>
       <c r="BA9" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>50.45871559633</v>
+      </c>
+      <c r="BC9" t="n">
         <v>54</v>
       </c>
-      <c r="BB9" t="n">
-        <v>50.943396226415</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>53</v>
-      </c>
       <c r="BD9" t="n">
-        <v>55.789473684211</v>
+        <v>55.102040816327</v>
       </c>
       <c r="BE9" t="n">
         <v>1</v>
@@ -3689,10 +3689,10 @@
         <v>9.090909090909101</v>
       </c>
       <c r="BG9" t="n">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="BH9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BI9" t="n">
         <v>14</v>
@@ -3713,28 +3713,28 @@
         <v>8</v>
       </c>
       <c r="BO9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>166.8</v>
+        <v>173.9</v>
       </c>
       <c r="BR9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BT9" t="n">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>5</v>
       </c>
       <c r="BZ9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CA9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CB9" t="n">
         <v>6</v>
       </c>
       <c r="CC9" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="CD9" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CK9" t="n">
         <v>2</v>
@@ -3800,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="CS9" t="n">
         <v>7</v>
       </c>
       <c r="CT9" t="n">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="CU9" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="CV9" t="n">
         <v>10</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="DA9" t="n">
         <v>26</v>
       </c>
       <c r="DB9" t="n">
-        <v>72.222222222222</v>
+        <v>70.27027027027</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="DG9" t="n">
-        <v>595</v>
+        <v>647</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>1091303</v>
       </c>
       <c r="E12" t="n">
-        <v>6.7857142857143</v>
+        <v>6.8090909090909</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>1099</v>
+        <v>1165</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -4616,7 +4616,7 @@
         <v>1.3038</v>
       </c>
       <c r="L12" t="n">
-        <v>1099</v>
+        <v>1165</v>
       </c>
       <c r="M12" t="n">
         <v>16</v>
@@ -4661,40 +4661,40 @@
         <v>2</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.40809154</v>
+        <v>1.53491754</v>
       </c>
       <c r="AB12" t="n">
-        <v>811</v>
+        <v>858</v>
       </c>
       <c r="AC12" t="n">
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="AF12" t="n">
-        <v>86.829268292683</v>
+        <v>86.963190184049</v>
       </c>
       <c r="AG12" t="n">
-        <v>615</v>
+        <v>652</v>
       </c>
       <c r="AH12" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AI12" t="n">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="AJ12" t="n">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AK12" t="n">
         <v>31</v>
       </c>
       <c r="AL12" t="n">
-        <v>60.78431372549</v>
+        <v>59.615384615385</v>
       </c>
       <c r="AM12" t="n">
         <v>5</v>
@@ -4706,16 +4706,16 @@
         <v>4</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR12" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AS12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT12" t="n">
         <v>12</v>
@@ -4733,22 +4733,22 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ12" t="n">
-        <v>43.478260869565</v>
+        <v>48</v>
       </c>
       <c r="BA12" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="BB12" t="n">
-        <v>45.384615384615</v>
+        <v>47.101449275362</v>
       </c>
       <c r="BC12" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="BD12" t="n">
-        <v>43.859649122807</v>
+        <v>45.901639344262</v>
       </c>
       <c r="BE12" t="n">
         <v>9</v>
@@ -4757,13 +4757,13 @@
         <v>56.25</v>
       </c>
       <c r="BG12" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="BH12" t="n">
         <v>22</v>
       </c>
       <c r="BI12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
@@ -4781,22 +4781,22 @@
         <v>3</v>
       </c>
       <c r="BO12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>142.5</v>
+        <v>149.8</v>
       </c>
       <c r="BR12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS12" t="n">
         <v>3</v>
       </c>
       <c r="BT12" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>8</v>
       </c>
       <c r="CB12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CC12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="CD12" t="n">
         <v>18</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CK12" t="n">
         <v>3</v>
@@ -4868,16 +4868,16 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CS12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CT12" t="n">
         <v>18</v>
       </c>
       <c r="CU12" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CV12" t="n">
         <v>7</v>
@@ -4892,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DA12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="DB12" t="n">
-        <v>52.380952380952</v>
+        <v>58.333333333333</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="DG12" t="n">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>977679</v>
       </c>
       <c r="E13" t="n">
-        <v>6.8411764705882</v>
+        <v>6.8388888888889</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>1108</v>
+        <v>1174</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>0.5251</v>
       </c>
       <c r="L13" t="n">
-        <v>1108</v>
+        <v>1174</v>
       </c>
       <c r="M13" t="n">
         <v>11</v>
@@ -5017,64 +5017,64 @@
         <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.24316276</v>
+        <v>1.32020126</v>
       </c>
       <c r="AB13" t="n">
-        <v>688</v>
+        <v>732</v>
       </c>
       <c r="AC13" t="n">
         <v>4</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="AF13" t="n">
-        <v>86.97247706422</v>
+        <v>86.75958188153299</v>
       </c>
       <c r="AG13" t="n">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="AH13" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AI13" t="n">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="AJ13" t="n">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>46.428571428571</v>
+        <v>48.387096774194</v>
       </c>
       <c r="AM13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN13" t="n">
-        <v>30</v>
+        <v>29.411764705882</v>
       </c>
       <c r="AO13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>3</v>
       </c>
       <c r="AR13" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AS13" t="n">
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
         <v>3</v>
@@ -5095,16 +5095,16 @@
         <v>46.666666666667</v>
       </c>
       <c r="BA13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB13" t="n">
-        <v>53.658536585366</v>
+        <v>53.333333333333</v>
       </c>
       <c r="BC13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD13" t="n">
-        <v>51.351351351351</v>
+        <v>51.219512195122</v>
       </c>
       <c r="BE13" t="n">
         <v>3</v>
@@ -5113,7 +5113,7 @@
         <v>75</v>
       </c>
       <c r="BG13" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="BH13" t="n">
         <v>5</v>
@@ -5137,22 +5137,22 @@
         <v>3</v>
       </c>
       <c r="BO13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>116.3</v>
+        <v>123.1</v>
       </c>
       <c r="BR13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS13" t="n">
         <v>3</v>
       </c>
       <c r="BT13" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5176,13 +5176,13 @@
         <v>3</v>
       </c>
       <c r="CB13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CC13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CD13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK13" t="n">
         <v>1</v>
@@ -5224,16 +5224,16 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CS13" t="n">
         <v>15</v>
       </c>
       <c r="CT13" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="CU13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CV13" t="n">
         <v>1</v>
@@ -5248,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="DA13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DB13" t="n">
-        <v>75</v>
+        <v>71.428571428571</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="DG13" t="n">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>1048889</v>
       </c>
       <c r="E15" t="n">
-        <v>6.59</v>
+        <v>6.6090909090909</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5729,34 +5729,34 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.6742019</v>
+        <v>0.7623748</v>
       </c>
       <c r="AB15" t="n">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="AC15" t="n">
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="AF15" t="n">
-        <v>82.222222222222</v>
+        <v>83.495145631068</v>
       </c>
       <c r="AG15" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS15" t="n">
         <v>4</v>
@@ -5801,22 +5801,22 @@
         <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14.285714285714</v>
+        <v>25</v>
       </c>
       <c r="BA15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB15" t="n">
-        <v>42.307692307692</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BC15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD15" t="n">
-        <v>33.333333333333</v>
+        <v>34.782608695652</v>
       </c>
       <c r="BE15" t="n">
         <v>4</v>
@@ -5825,10 +5825,10 @@
         <v>80</v>
       </c>
       <c r="BG15" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI15" t="n">
         <v>1</v>
@@ -5849,22 +5849,22 @@
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>65.90000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="BR15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -5936,16 +5936,16 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CS15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CT15" t="n">
         <v>3</v>
       </c>
       <c r="CU15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CV15" t="n">
         <v>1</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="DG15" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6373,16 +6373,16 @@
         <v>383560</v>
       </c>
       <c r="E17" t="n">
-        <v>7.1045454545455</v>
+        <v>7.0695652173913</v>
       </c>
       <c r="F17" t="n">
+        <v>23</v>
+      </c>
+      <c r="G17" t="n">
         <v>22</v>
       </c>
-      <c r="G17" t="n">
-        <v>21</v>
-      </c>
       <c r="H17" t="n">
-        <v>1900</v>
+        <v>1990</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
@@ -6394,7 +6394,7 @@
         <v>1.3519</v>
       </c>
       <c r="L17" t="n">
-        <v>1900</v>
+        <v>1990</v>
       </c>
       <c r="M17" t="n">
         <v>15</v>
@@ -6439,40 +6439,40 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.98172679</v>
+        <v>1.05448469</v>
       </c>
       <c r="AB17" t="n">
-        <v>1670</v>
+        <v>1760</v>
       </c>
       <c r="AC17" t="n">
         <v>1</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
-        <v>1294</v>
+        <v>1373</v>
       </c>
       <c r="AF17" t="n">
-        <v>92.296718972896</v>
+        <v>92.271505376344</v>
       </c>
       <c r="AG17" t="n">
-        <v>1402</v>
+        <v>1488</v>
       </c>
       <c r="AH17" t="n">
-        <v>727</v>
+        <v>762</v>
       </c>
       <c r="AI17" t="n">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="AJ17" t="n">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="AK17" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AL17" t="n">
-        <v>65.06024096385499</v>
+        <v>63.04347826087</v>
       </c>
       <c r="AM17" t="n">
         <v>2</v>
@@ -6490,13 +6490,13 @@
         <v>2</v>
       </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AS17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT17" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
@@ -6517,25 +6517,25 @@
         <v>50</v>
       </c>
       <c r="BA17" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BB17" t="n">
-        <v>58.156028368794</v>
+        <v>55.704697986577</v>
       </c>
       <c r="BC17" t="n">
         <v>47</v>
       </c>
       <c r="BD17" t="n">
-        <v>58.75</v>
+        <v>58.024691358025</v>
       </c>
       <c r="BE17" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BF17" t="n">
-        <v>57.377049180328</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BG17" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="BH17" t="n">
         <v>20</v>
@@ -6559,22 +6559,22 @@
         <v>12</v>
       </c>
       <c r="BO17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>156.3</v>
+        <v>162.6</v>
       </c>
       <c r="BR17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS17" t="n">
         <v>1</v>
       </c>
       <c r="BT17" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>4</v>
       </c>
       <c r="CC17" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="CD17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CK17" t="n">
         <v>2</v>
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CS17" t="n">
         <v>2</v>
@@ -6655,10 +6655,10 @@
         <v>3</v>
       </c>
       <c r="CU17" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="CV17" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="DA17" t="n">
         <v>17</v>
@@ -6688,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>761</v>
+        <v>798</v>
       </c>
       <c r="DG17" t="n">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>826188</v>
       </c>
       <c r="E18" t="n">
-        <v>7.452380952381</v>
+        <v>7.4045454545455</v>
       </c>
       <c r="F18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>1815</v>
+        <v>1860</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
@@ -6747,22 +6747,22 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1.1343</v>
+        <v>1.3279</v>
       </c>
       <c r="L18" t="n">
-        <v>1815</v>
+        <v>1860</v>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
         <v>3</v>
       </c>
       <c r="P18" t="n">
-        <v>6.6666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -6789,16 +6789,16 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="n">
         <v>4</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.5387227</v>
+        <v>2.5492087</v>
       </c>
       <c r="AB18" t="n">
-        <v>1879</v>
+        <v>1931</v>
       </c>
       <c r="AC18" t="n">
         <v>7</v>
@@ -6807,28 +6807,28 @@
         <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>1252</v>
+        <v>1294</v>
       </c>
       <c r="AF18" t="n">
-        <v>87.247386759582</v>
+        <v>87.491548343475</v>
       </c>
       <c r="AG18" t="n">
-        <v>1435</v>
+        <v>1479</v>
       </c>
       <c r="AH18" t="n">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="AI18" t="n">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="AJ18" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AK18" t="n">
         <v>105</v>
       </c>
       <c r="AL18" t="n">
-        <v>57.065217391304</v>
+        <v>56.756756756757</v>
       </c>
       <c r="AM18" t="n">
         <v>19</v>
@@ -6837,7 +6837,7 @@
         <v>28.358208955224</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP18" t="n">
         <v>40</v>
@@ -6846,13 +6846,13 @@
         <v>6</v>
       </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AS18" t="n">
         <v>5</v>
       </c>
       <c r="AT18" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU18" t="n">
         <v>3</v>
@@ -6873,37 +6873,37 @@
         <v>57.142857142857</v>
       </c>
       <c r="BA18" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BB18" t="n">
-        <v>60.588235294118</v>
+        <v>60.693641618497</v>
       </c>
       <c r="BC18" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BD18" t="n">
-        <v>59.803921568627</v>
+        <v>59.615384615385</v>
       </c>
       <c r="BE18" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BF18" t="n">
-        <v>61.764705882353</v>
+        <v>62.31884057971</v>
       </c>
       <c r="BG18" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="BH18" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BI18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
       </c>
       <c r="BK18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL18" t="n">
         <v>0</v>
@@ -6915,22 +6915,22 @@
         <v>8</v>
       </c>
       <c r="BO18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>156.5</v>
+        <v>162.9</v>
       </c>
       <c r="BR18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS18" t="n">
         <v>5</v>
       </c>
       <c r="BT18" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6948,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="BZ18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CA18" t="n">
         <v>2</v>
@@ -6957,10 +6957,10 @@
         <v>1</v>
       </c>
       <c r="CC18" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CD18" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK18" t="n">
         <v>4</v>
@@ -7011,7 +7011,7 @@
         <v>67</v>
       </c>
       <c r="CU18" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CV18" t="n">
         <v>26</v>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="DA18" t="n">
         <v>31</v>
@@ -7044,13 +7044,13 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>662</v>
+        <v>692</v>
       </c>
       <c r="DG18" t="n">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="DH18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="DI18" t="n">
         <v>4</v>
@@ -7085,16 +7085,16 @@
         <v>929199</v>
       </c>
       <c r="E19" t="n">
-        <v>6.895</v>
+        <v>6.8761904761905</v>
       </c>
       <c r="F19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" t="n">
         <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>953</v>
+        <v>998</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>1.0716</v>
       </c>
       <c r="L19" t="n">
-        <v>953</v>
+        <v>998</v>
       </c>
       <c r="M19" t="n">
         <v>13</v>
@@ -7151,10 +7151,10 @@
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.22817305</v>
+        <v>1.25731605</v>
       </c>
       <c r="AB19" t="n">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7163,22 +7163,22 @@
         <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="AF19" t="n">
-        <v>86.259541984733</v>
+        <v>87.234042553191</v>
       </c>
       <c r="AG19" t="n">
-        <v>524</v>
+        <v>564</v>
       </c>
       <c r="AH19" t="n">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI19" t="n">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="AJ19" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AK19" t="n">
         <v>7</v>
@@ -7187,13 +7187,13 @@
         <v>25</v>
       </c>
       <c r="AM19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>20.588235294118</v>
+      </c>
+      <c r="AO19" t="n">
         <v>6</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>5</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
@@ -7202,13 +7202,13 @@
         <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU19" t="n">
         <v>2</v>
@@ -7229,25 +7229,25 @@
         <v>55.555555555556</v>
       </c>
       <c r="BA19" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BB19" t="n">
-        <v>62.903225806452</v>
+        <v>62.204724409449</v>
       </c>
       <c r="BC19" t="n">
         <v>36</v>
       </c>
       <c r="BD19" t="n">
-        <v>57.142857142857</v>
+        <v>56.25</v>
       </c>
       <c r="BE19" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BF19" t="n">
-        <v>68.852459016393</v>
+        <v>68.253968253968</v>
       </c>
       <c r="BG19" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BH19" t="n">
         <v>18</v>
@@ -7271,16 +7271,16 @@
         <v>2</v>
       </c>
       <c r="BO19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>137.9</v>
+        <v>144.4</v>
       </c>
       <c r="BR19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS19" t="n">
         <v>2</v>
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK19" t="n">
         <v>2</v>
@@ -7364,13 +7364,13 @@
         <v>9</v>
       </c>
       <c r="CT19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="CU19" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CV19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7400,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="DG19" t="n">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="DH19" t="n">
         <v>2</v>
@@ -8153,16 +8153,16 @@
         <v>906275</v>
       </c>
       <c r="E22" t="n">
-        <v>7.1153846153846</v>
+        <v>7.1</v>
       </c>
       <c r="F22" t="n">
+        <v>14</v>
+      </c>
+      <c r="G22" t="n">
         <v>13</v>
       </c>
-      <c r="G22" t="n">
-        <v>12</v>
-      </c>
       <c r="H22" t="n">
-        <v>1102</v>
+        <v>1192</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8171,22 +8171,22 @@
         <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.0628</v>
+        <v>2.225</v>
       </c>
       <c r="L22" t="n">
-        <v>551</v>
+        <v>596</v>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>10</v>
+        <v>9.523809523809501</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -8216,67 +8216,67 @@
         <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.31694904</v>
+        <v>0.47188404</v>
       </c>
       <c r="AB22" t="n">
-        <v>952</v>
+        <v>1022</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>684</v>
+        <v>732</v>
       </c>
       <c r="AF22" t="n">
-        <v>92.43243243243199</v>
+        <v>92.30769230769199</v>
       </c>
       <c r="AG22" t="n">
-        <v>740</v>
+        <v>793</v>
       </c>
       <c r="AH22" t="n">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="AI22" t="n">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="AJ22" t="n">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="AK22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>45.714285714286</v>
+        <v>45.945945945946</v>
       </c>
       <c r="AM22" t="n">
         <v>1</v>
       </c>
       <c r="AN22" t="n">
-        <v>16.666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AU22" t="n">
         <v>7</v>
@@ -8297,28 +8297,28 @@
         <v>75</v>
       </c>
       <c r="BA22" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BB22" t="n">
-        <v>59.803921568627</v>
+        <v>59.633027522936</v>
       </c>
       <c r="BC22" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BD22" t="n">
-        <v>56.363636363636</v>
+        <v>55.932203389831</v>
       </c>
       <c r="BE22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BF22" t="n">
-        <v>63.829787234043</v>
+        <v>64</v>
       </c>
       <c r="BG22" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="BH22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BI22" t="n">
         <v>11</v>
@@ -8339,22 +8339,22 @@
         <v>6</v>
       </c>
       <c r="BO22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>92.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="BR22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT22" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="BZ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CA22" t="n">
         <v>4</v>
@@ -8381,28 +8381,28 @@
         <v>5</v>
       </c>
       <c r="CC22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CD22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
         <v>9</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>7</v>
       </c>
       <c r="CK22" t="n">
         <v>2</v>
@@ -8426,19 +8426,19 @@
         <v>0</v>
       </c>
       <c r="CR22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CS22" t="n">
         <v>8</v>
       </c>
       <c r="CT22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU22" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CV22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="DA22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="DB22" t="n">
-        <v>53.333333333333</v>
+        <v>58.823529411765</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="DG22" t="n">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
@@ -8509,16 +8509,16 @@
         <v>16206</v>
       </c>
       <c r="E23" t="n">
-        <v>6.9272727272727</v>
+        <v>6.9565217391304</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" t="n">
-        <v>1980</v>
+        <v>2070</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8573,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.01779503</v>
+        <v>0.01806742</v>
       </c>
       <c r="AB23" t="n">
-        <v>803</v>
+        <v>844</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -8585,28 +8585,28 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="AF23" t="n">
-        <v>82.544378698225</v>
+        <v>82.930298719772</v>
       </c>
       <c r="AG23" t="n">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="AH23" t="n">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="AI23" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
         <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AL23" t="n">
-        <v>50.21645021645</v>
+        <v>50.632911392405</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -8624,13 +8624,13 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="BG23" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BH23" t="n">
         <v>0</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="BM23" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="BN23" t="n">
         <v>12</v>
       </c>
       <c r="BO23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>152.4</v>
+        <v>160</v>
       </c>
       <c r="BR23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8735,10 +8735,10 @@
         <v>0</v>
       </c>
       <c r="CC23" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CD23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -8750,19 +8750,19 @@
         <v>2</v>
       </c>
       <c r="CH23" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="CI23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CJ23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CK23" t="n">
         <v>4</v>
       </c>
       <c r="CL23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CM23" t="n">
         <v>5</v>
@@ -8771,7 +8771,7 @@
         <v>5</v>
       </c>
       <c r="CO23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CP23" t="n">
         <v>1</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="DA23" t="n">
         <v>0</v>
@@ -8819,16 +8819,16 @@
         <v>0</v>
       </c>
       <c r="DE23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DF23" t="n">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="DG23" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="DH23" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="DI23" t="n">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="DL23" t="n">
-        <v>-2.1074</v>
+        <v>-1.6283</v>
       </c>
     </row>
     <row r="24">
